--- a/config/testcases/Report_BrickLayer.BE.RS01(Clone).xlsx
+++ b/config/testcases/Report_BrickLayer.BE.RS01(Clone).xlsx
@@ -323,7 +323,7 @@
     <t>waitForObjectNotPresent</t>
   </si>
   <si>
-    <t>GamePlay-BrickLayers(Clone),60</t>
+    <t>BrickLayer*,60</t>
   </si>
   <si>
     <t>Loop</t>
